--- a/media/shoblons/hospital/oth/a_oth_36.xlsx
+++ b/media/shoblons/hospital/oth/a_oth_36.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t xml:space="preserve">Информация по мониторингу ОНМК, таблица </t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t xml:space="preserve">Информация по мониторингу ОНМК, таблица 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I60-I66.9</t>
   </si>
   <si>
     <t xml:space="preserve">До суток</t>
@@ -71,6 +74,7 @@
         <sz val="12"/>
         <rFont val="Courier New"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">часа</t>
     </r>
@@ -148,15 +152,15 @@
     <font>
       <b val="true"/>
       <sz val="12"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="12"/>
-      <name val="Courier New"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -208,7 +212,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -257,8 +261,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -281,10 +293,10 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.31"/>
@@ -410,7 +422,9 @@
       <c r="C16" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="D16" s="12" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="s">
@@ -418,77 +432,79 @@
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
-      <c r="D17" s="1"/>
+      <c r="D17" s="10"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
-      <c r="D18" s="1"/>
+      <c r="D18" s="10"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="12" t="s">
-        <v>11</v>
+      <c r="A19" s="13" t="s">
+        <v>12</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
-      <c r="D19" s="1"/>
+      <c r="D19" s="10"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
-      <c r="D20" s="1"/>
+      <c r="D20" s="10"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
-      <c r="D21" s="1"/>
+      <c r="D21" s="10"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
-      <c r="D22" s="1"/>
+      <c r="D22" s="10"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
-      <c r="D23" s="1"/>
+      <c r="D23" s="10"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
-      <c r="D24" s="1"/>
+      <c r="D24" s="10"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
+      <c r="D25" s="14"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
+      <c r="D26" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/media/shoblons/hospital/oth/a_oth_36.xlsx
+++ b/media/shoblons/hospital/oth/a_oth_36.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Лист2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t xml:space="preserve">Информация по мониторингу ОНМК, таблица </t>
   </si>
@@ -53,9 +54,6 @@
   </si>
   <si>
     <t xml:space="preserve">I60-I66.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">До суток</t>
   </si>
   <si>
     <r>
@@ -100,6 +98,32 @@
   <si>
     <t xml:space="preserve">6-12 часов</t>
   </si>
+  <si>
+    <t xml:space="preserve">Информация по мониторингу ОНМК, таблица 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">До суток</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Информация по мониторингу ОНМК, таблица 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">История</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отделение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФИО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дата
+Поступления</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дата
+Выбытия</t>
+  </si>
 </sst>
 </file>
 
@@ -152,12 +176,13 @@
     <font>
       <b val="true"/>
       <sz val="12"/>
-      <name val="Courier New"/>
-      <family val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
-      <sz val="12"/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -212,7 +237,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -261,16 +286,28 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -290,13 +327,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.31"/>
@@ -422,7 +459,7 @@
       <c r="C16" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="8" t="s">
         <v>10</v>
       </c>
     </row>
@@ -435,7 +472,7 @@
       <c r="D17" s="10"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="10"/>
@@ -443,7 +480,7 @@
       <c r="D18" s="10"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="10"/>
@@ -488,7 +525,7 @@
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
+      <c r="D24" s="13"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="s">
@@ -496,24 +533,86 @@
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="14"/>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9" t="s">
+      <c r="D25" s="13"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="14"/>
+      <c r="B28" s="14"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="7"/>
+      <c r="B29" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="14"/>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="7"/>
+      <c r="B35" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A34:B34"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.39375" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
@@ -523,4 +622,61 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A2:E4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.26"/>
+  </cols>
+  <sheetData>
+    <row r="2" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/media/shoblons/hospital/oth/a_oth_36.xlsx
+++ b/media/shoblons/hospital/oth/a_oth_36.xlsx
@@ -11,6 +11,9 @@
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Лист2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles" vbProcedure="false">Лист2!$4:$4</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -21,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
   <si>
     <t xml:space="preserve">Информация по мониторингу ОНМК, таблица </t>
   </si>
@@ -117,12 +120,32 @@
     <t xml:space="preserve">ФИО</t>
   </si>
   <si>
+    <t xml:space="preserve">Дата рождения</t>
+  </si>
+  <si>
     <t xml:space="preserve">Дата
 Поступления</t>
   </si>
   <si>
     <t xml:space="preserve">Дата
 Выбытия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Исх
+Леч</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Профиль
+Койки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Плат</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Адрес</t>
   </si>
 </sst>
 </file>
@@ -237,7 +260,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -296,6 +319,26 @@
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -329,11 +372,11 @@
   </sheetPr>
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.31"/>
@@ -629,42 +672,83 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:E4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L9" activeCellId="0" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="15" width="8.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="15" width="20.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="15" width="19.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="15" width="10.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="15" width="11.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="15" width="10.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="15" width="7.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="15" width="6.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="16" width="18.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="16" width="7.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="16" width="34.06"/>
   </cols>
   <sheetData>
-    <row r="2" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="15" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+    </row>
+    <row r="2" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="17" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="16" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="19"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+    </row>
+    <row r="4" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="22" t="s">
         <v>26</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -672,10 +756,10 @@
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.0395833333333333" right="0.0395833333333333" top="0.7875" bottom="1.05277777777778" header="0.511811023622047" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="96" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
+    <oddHeader/>
     <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
   </headerFooter>
 </worksheet>

--- a/media/shoblons/hospital/oth/a_oth_36.xlsx
+++ b/media/shoblons/hospital/oth/a_oth_36.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
   <si>
     <t xml:space="preserve">Информация по мониторингу ОНМК, таблица </t>
   </si>
@@ -93,22 +93,22 @@
     <t xml:space="preserve">4-5 часа</t>
   </si>
   <si>
+    <t xml:space="preserve">5-6 часов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-12 часов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Информация по мониторингу ОНМК, таблица 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">До суток</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Информация по мониторингу ОНМК, таблица 4</t>
+  </si>
+  <si>
     <t xml:space="preserve">4,5 часа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5-6 часов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6-12 часов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Информация по мониторингу ОНМК, таблица 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">До суток</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Информация по мониторингу ОНМК, таблица 4</t>
   </si>
   <si>
     <t xml:space="preserve">История</t>
@@ -370,13 +370,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.31"/>
@@ -560,7 +560,7 @@
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
+      <c r="D23" s="13"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="s">
@@ -570,81 +570,73 @@
       <c r="C24" s="10"/>
       <c r="D24" s="13"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9" t="s">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="13"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="14" t="s">
+      <c r="B27" s="14"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="7"/>
+      <c r="B28" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="12" t="s">
         <v>19</v>
-      </c>
-      <c r="B28" s="14"/>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="7"/>
-      <c r="B29" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="9" t="s">
-        <v>6</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="12" t="s">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34" s="14"/>
+      <c r="B33" s="14"/>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="7"/>
+      <c r="B34" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="7"/>
-      <c r="B35" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="A35" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="9" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -654,8 +646,8 @@
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A33:B33"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.39375" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
@@ -674,11 +666,11 @@
   </sheetPr>
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L9" activeCellId="0" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="15" width="8.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="15" width="20.01"/>
@@ -699,7 +691,7 @@
     </row>
     <row r="2" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>

--- a/media/shoblons/hospital/oth/a_oth_36.xlsx
+++ b/media/shoblons/hospital/oth/a_oth_36.xlsx
@@ -5,14 +5,17 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Лист2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Лист3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles" vbProcedure="false">Лист2!$4:$4</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Titles" vbProcedure="false">Лист3!$2:$4</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Titles" vbProcedure="false">Лист3!$4:$4</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
   <si>
     <t xml:space="preserve">Информация по мониторингу ОНМК, таблица </t>
   </si>
@@ -146,6 +149,9 @@
   </si>
   <si>
     <t xml:space="preserve">Адрес</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Информация по мониторингу ОНМК, таблица 4 </t>
   </si>
 </sst>
 </file>
@@ -372,11 +378,11 @@
   </sheetPr>
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.31"/>
@@ -667,16 +673,16 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L9" activeCellId="0" sqref="L9"/>
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="15" width="8.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="15" width="20.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="15" width="19.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="15" width="10.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="15" width="11.81"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="15" width="11.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="15" width="10.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="15" width="7.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="15" width="6.54"/>
@@ -755,4 +761,107 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="15" width="8.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="15" width="20.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="15" width="19.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="15" width="10.41"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="15" width="11.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="15" width="10.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="15" width="7.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="15" width="6.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="16" width="18.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="16" width="7.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="16" width="34.06"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+    </row>
+    <row r="2" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="19"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+    </row>
+    <row r="4" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.0395833333333333" right="0.0395833333333333" top="0.7875" bottom="1.05277777777778" header="0.511811023622047" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="96" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>